--- a/excel/fon_is_clustering.xlsx
+++ b/excel/fon_is_clustering.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,70 +481,10 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Elena Milovanovic</t>
+          <t>Ana Pajic</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Ana Pajic</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Dejan Stojimirovic</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Milos Zlatkovic</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Jelena Ljubenovic</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Andela Pejanovic</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Sofija Prokic</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
         <v>0</v>
       </c>
     </row>
